--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Reln-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Reln-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H2">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I2">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J2">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.582021999999999</v>
+        <v>15.025588</v>
       </c>
       <c r="N2">
-        <v>22.746066</v>
+        <v>45.076764</v>
       </c>
       <c r="O2">
-        <v>0.6904803268470485</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P2">
-        <v>0.6904803268470484</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q2">
-        <v>0.3106480780433333</v>
+        <v>2.779122739421333</v>
       </c>
       <c r="R2">
-        <v>2.79583270239</v>
+        <v>25.012104654792</v>
       </c>
       <c r="S2">
-        <v>0.00670245473410954</v>
+        <v>0.03359662832586592</v>
       </c>
       <c r="T2">
-        <v>0.006702454734109537</v>
+        <v>0.03359662832586592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H3">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I3">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J3">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.52837</v>
       </c>
       <c r="O3">
-        <v>0.01603921708027116</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P3">
-        <v>0.01603921708027115</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q3">
-        <v>0.007216066505555556</v>
+        <v>0.03257565431777778</v>
       </c>
       <c r="R3">
-        <v>0.06494459855000001</v>
+        <v>0.29318088886</v>
       </c>
       <c r="S3">
-        <v>0.0001556918021719209</v>
+        <v>0.0003938048993165919</v>
       </c>
       <c r="T3">
-        <v>0.0001556918021719209</v>
+        <v>0.0003938048993165919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H4">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I4">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J4">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.025778</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N4">
-        <v>9.077334</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O4">
-        <v>0.2755518491514017</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P4">
-        <v>0.2755518491514016</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q4">
-        <v>0.1239711676233334</v>
+        <v>0.005278985985777778</v>
       </c>
       <c r="R4">
-        <v>1.11574050861</v>
+        <v>0.047510873872</v>
       </c>
       <c r="S4">
-        <v>0.002674766715325345</v>
+        <v>6.381730737756473E-05</v>
       </c>
       <c r="T4">
-        <v>0.002674766715325343</v>
+        <v>6.381730737756473E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H5">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I5">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J5">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.116695</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N5">
-        <v>0.350085</v>
+        <v>19.037629</v>
       </c>
       <c r="O5">
-        <v>0.01062719176248979</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P5">
-        <v>0.01062719176248978</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q5">
-        <v>0.004781188641666667</v>
+        <v>1.173729056029111</v>
       </c>
       <c r="R5">
-        <v>0.04303069777500001</v>
+        <v>10.563561504262</v>
       </c>
       <c r="S5">
-        <v>0.0001031575686798209</v>
+        <v>0.01418913180455293</v>
       </c>
       <c r="T5">
-        <v>0.0001031575686798208</v>
+        <v>0.01418913180455293</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.04097166666666667</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H6">
-        <v>0.122915</v>
+        <v>0.554878</v>
       </c>
       <c r="I6">
-        <v>0.009706945257535529</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J6">
-        <v>0.009706945257535527</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,33 +809,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.08017533333333333</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N6">
-        <v>0.240526</v>
+        <v>0.458717</v>
       </c>
       <c r="O6">
-        <v>0.007301415158788918</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P6">
-        <v>0.007301415158788916</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q6">
-        <v>0.003284917032222223</v>
+        <v>0.02828133016955555</v>
       </c>
       <c r="R6">
-        <v>0.02956425329</v>
+        <v>0.254531971526</v>
       </c>
       <c r="S6">
-        <v>7.087443724890412E-05</v>
+        <v>0.0003418911028253102</v>
       </c>
       <c r="T6">
-        <v>7.087443724890408E-05</v>
+        <v>0.0003418911028253102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09700633333333335</v>
+        <v>0.1849593333333333</v>
       </c>
       <c r="H7">
-        <v>0.291019</v>
+        <v>0.554878</v>
       </c>
       <c r="I7">
-        <v>0.02298259367776701</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="J7">
-        <v>0.02298259367776701</v>
+        <v>0.04877645704675455</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>7.582021999999999</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N7">
-        <v>22.746066</v>
+        <v>0.256512</v>
       </c>
       <c r="O7">
-        <v>0.6904803268470485</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P7">
-        <v>0.6904803268470484</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q7">
-        <v>0.7355041534726667</v>
+        <v>0.01581476283733333</v>
       </c>
       <c r="R7">
-        <v>6.619537381254</v>
+        <v>0.142332865536</v>
       </c>
       <c r="S7">
-        <v>0.01586902879441748</v>
+        <v>0.0001911836068162417</v>
       </c>
       <c r="T7">
-        <v>0.01586902879441747</v>
+        <v>0.0001911836068162417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>0.291019</v>
       </c>
       <c r="I8">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J8">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1761233333333333</v>
+        <v>15.025588</v>
       </c>
       <c r="N8">
-        <v>0.52837</v>
+        <v>45.076764</v>
       </c>
       <c r="O8">
-        <v>0.01603921708027116</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P8">
-        <v>0.01603921708027115</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q8">
-        <v>0.01708507878111111</v>
+        <v>1.457577198057334</v>
       </c>
       <c r="R8">
-        <v>0.15376570903</v>
+        <v>13.118194782516</v>
       </c>
       <c r="S8">
-        <v>0.0003686228090653725</v>
+        <v>0.01762055294815288</v>
       </c>
       <c r="T8">
-        <v>0.0003686228090653724</v>
+        <v>0.01762055294815288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>0.291019</v>
       </c>
       <c r="I9">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J9">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.025778</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N9">
-        <v>9.077334</v>
+        <v>0.52837</v>
       </c>
       <c r="O9">
-        <v>0.2755518491514017</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P9">
-        <v>0.2755518491514016</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q9">
-        <v>0.2935196292606667</v>
+        <v>0.01708507878111111</v>
       </c>
       <c r="R9">
-        <v>2.641676663346</v>
+        <v>0.15376570903</v>
       </c>
       <c r="S9">
-        <v>0.006332896186204015</v>
+        <v>0.0002065403710260909</v>
       </c>
       <c r="T9">
-        <v>0.006332896186204012</v>
+        <v>0.0002065403710260909</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>0.291019</v>
       </c>
       <c r="I10">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J10">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.116695</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N10">
-        <v>0.350085</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O10">
-        <v>0.01062719176248979</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P10">
-        <v>0.01062719176248978</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q10">
-        <v>0.01132015406833334</v>
+        <v>0.002768690095111112</v>
       </c>
       <c r="R10">
-        <v>0.101881386615</v>
+        <v>0.024918210856</v>
       </c>
       <c r="S10">
-        <v>0.0002442404302130154</v>
+        <v>3.347050878879954E-05</v>
       </c>
       <c r="T10">
-        <v>0.0002442404302130153</v>
+        <v>3.347050878879954E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>0.291019</v>
       </c>
       <c r="I11">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J11">
-        <v>0.02298259367776701</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.08017533333333333</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N11">
-        <v>0.240526</v>
+        <v>19.037629</v>
       </c>
       <c r="O11">
-        <v>0.007301415158788918</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P11">
-        <v>0.007301415158788916</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q11">
-        <v>0.007777515110444446</v>
+        <v>0.6155901948834446</v>
       </c>
       <c r="R11">
-        <v>0.06999763599400001</v>
+        <v>5.540311753951001</v>
       </c>
       <c r="S11">
-        <v>0.0001678054578671344</v>
+        <v>0.007441828561646325</v>
       </c>
       <c r="T11">
-        <v>0.0001678054578671343</v>
+        <v>0.007441828561646325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>7.366666666666666E-05</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H12">
-        <v>0.000221</v>
+        <v>0.291019</v>
       </c>
       <c r="I12">
-        <v>1.745299517483913E-05</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J12">
-        <v>1.745299517483913E-05</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>7.582021999999999</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N12">
-        <v>22.746066</v>
+        <v>0.458717</v>
       </c>
       <c r="O12">
-        <v>0.6904803268470485</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P12">
-        <v>0.6904803268470484</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q12">
-        <v>0.0005585422873333332</v>
+        <v>0.01483281806922222</v>
       </c>
       <c r="R12">
-        <v>0.005026880586</v>
+        <v>0.133495362623</v>
       </c>
       <c r="S12">
-        <v>1.205094981278288E-05</v>
+        <v>0.0001793129424001653</v>
       </c>
       <c r="T12">
-        <v>1.205094981278288E-05</v>
+        <v>0.0001793129424001653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,25 +1216,25 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>7.366666666666666E-05</v>
+        <v>0.09700633333333335</v>
       </c>
       <c r="H13">
-        <v>0.000221</v>
+        <v>0.291019</v>
       </c>
       <c r="I13">
-        <v>1.745299517483913E-05</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="J13">
-        <v>1.745299517483913E-05</v>
+        <v>0.02558197613401408</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,28 +1243,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1761233333333333</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N13">
-        <v>0.52837</v>
+        <v>0.256512</v>
       </c>
       <c r="O13">
-        <v>0.01603921708027116</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P13">
-        <v>0.01603921708027115</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q13">
-        <v>1.297441888888889E-05</v>
+        <v>0.008294429525333335</v>
       </c>
       <c r="R13">
-        <v>0.00011676977</v>
+        <v>0.07464986572800002</v>
       </c>
       <c r="S13">
-        <v>2.799323783101698E-07</v>
+        <v>0.0001002708019998195</v>
       </c>
       <c r="T13">
-        <v>2.799323783101698E-07</v>
+        <v>0.0001002708019998195</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1293,10 +1293,10 @@
         <v>0.000221</v>
       </c>
       <c r="I14">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J14">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.025778</v>
+        <v>15.025588</v>
       </c>
       <c r="N14">
-        <v>9.077334</v>
+        <v>45.076764</v>
       </c>
       <c r="O14">
-        <v>0.2755518491514017</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P14">
-        <v>0.2755518491514016</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q14">
-        <v>0.0002228989793333333</v>
+        <v>0.001106884982666667</v>
       </c>
       <c r="R14">
-        <v>0.002006090814</v>
+        <v>0.009961964844</v>
       </c>
       <c r="S14">
-        <v>4.809205093657415E-06</v>
+        <v>1.338105828671594E-05</v>
       </c>
       <c r="T14">
-        <v>4.809205093657412E-06</v>
+        <v>1.338105828671594E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1355,10 +1355,10 @@
         <v>0.000221</v>
       </c>
       <c r="I15">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J15">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.116695</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N15">
-        <v>0.350085</v>
+        <v>0.52837</v>
       </c>
       <c r="O15">
-        <v>0.01062719176248979</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P15">
-        <v>0.01062719176248978</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q15">
-        <v>8.596531666666668E-06</v>
+        <v>1.297441888888889E-05</v>
       </c>
       <c r="R15">
-        <v>7.736878500000002E-05</v>
+        <v>0.00011676977</v>
       </c>
       <c r="S15">
-        <v>1.854763265528244E-07</v>
+        <v>1.568468794022593E-07</v>
       </c>
       <c r="T15">
-        <v>1.854763265528244E-07</v>
+        <v>1.568468794022593E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1417,72 +1417,72 @@
         <v>0.000221</v>
       </c>
       <c r="I16">
-        <v>1.745299517483913E-05</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J16">
-        <v>1.745299517483913E-05</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.08017533333333333</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N16">
-        <v>0.240526</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O16">
-        <v>0.007301415158788918</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P16">
-        <v>0.007301415158788916</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q16">
-        <v>5.906249555555555E-06</v>
+        <v>2.102544888888889E-06</v>
       </c>
       <c r="R16">
-        <v>5.3156246E-05</v>
+        <v>1.8922904E-05</v>
       </c>
       <c r="S16">
-        <v>1.274315635358403E-07</v>
+        <v>2.541752408717196E-08</v>
       </c>
       <c r="T16">
-        <v>1.274315635358402E-07</v>
+        <v>2.541752408717197E-08</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>4.051414</v>
+        <v>7.366666666666666E-05</v>
       </c>
       <c r="H17">
-        <v>12.154242</v>
+        <v>0.000221</v>
       </c>
       <c r="I17">
-        <v>0.9598548732118873</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J17">
-        <v>0.9598548732118872</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.582021999999999</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N17">
-        <v>22.746066</v>
+        <v>19.037629</v>
       </c>
       <c r="O17">
-        <v>0.6904803268470485</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P17">
-        <v>0.6904803268470484</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q17">
-        <v>30.717910079108</v>
+        <v>0.0004674795565555556</v>
       </c>
       <c r="R17">
-        <v>276.461190711972</v>
+        <v>0.004207316009</v>
       </c>
       <c r="S17">
-        <v>0.6627609065810763</v>
+        <v>5.651328992690641E-06</v>
       </c>
       <c r="T17">
-        <v>0.6627609065810761</v>
+        <v>5.651328992690642E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,25 +1526,25 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>4.051414</v>
+        <v>7.366666666666666E-05</v>
       </c>
       <c r="H18">
-        <v>12.154242</v>
+        <v>0.000221</v>
       </c>
       <c r="I18">
-        <v>0.9598548732118873</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J18">
-        <v>0.9598548732118872</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,33 +1553,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.1761233333333333</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N18">
-        <v>0.52837</v>
+        <v>0.458717</v>
       </c>
       <c r="O18">
-        <v>0.01603921708027116</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P18">
-        <v>0.01603921708027115</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q18">
-        <v>0.7135485383933333</v>
+        <v>1.126405077777778E-05</v>
       </c>
       <c r="R18">
-        <v>6.42193684554</v>
+        <v>0.000101376457</v>
       </c>
       <c r="S18">
-        <v>0.01539532067700161</v>
+        <v>1.361703540677294E-07</v>
       </c>
       <c r="T18">
-        <v>0.0153953206770016</v>
+        <v>1.361703540677294E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>4.051414</v>
+        <v>7.366666666666666E-05</v>
       </c>
       <c r="H19">
-        <v>12.154242</v>
+        <v>0.000221</v>
       </c>
       <c r="I19">
-        <v>0.9598548732118873</v>
+        <v>1.942696774305839E-05</v>
       </c>
       <c r="J19">
-        <v>0.9598548732118872</v>
+        <v>1.94269677430584E-05</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.025778</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N19">
-        <v>9.077334</v>
+        <v>0.256512</v>
       </c>
       <c r="O19">
-        <v>0.2755518491514017</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P19">
-        <v>0.2755518491514016</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q19">
-        <v>12.258679350092</v>
+        <v>6.298794666666667E-06</v>
       </c>
       <c r="R19">
-        <v>110.328114150828</v>
+        <v>5.668915200000001E-05</v>
       </c>
       <c r="S19">
-        <v>0.2644897852305198</v>
+        <v>7.6145706094654E-08</v>
       </c>
       <c r="T19">
-        <v>0.2644897852305197</v>
+        <v>7.6145706094654E-08</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H20">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I20">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J20">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.116695</v>
+        <v>15.025588</v>
       </c>
       <c r="N20">
-        <v>0.350085</v>
+        <v>45.076764</v>
       </c>
       <c r="O20">
-        <v>0.01062719176248979</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P20">
-        <v>0.01062719176248978</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q20">
-        <v>0.4727797567300001</v>
+        <v>52.187939058348</v>
       </c>
       <c r="R20">
-        <v>4.25501781057</v>
+        <v>469.691451525132</v>
       </c>
       <c r="S20">
-        <v>0.01020056180178305</v>
+        <v>0.6308964936184638</v>
       </c>
       <c r="T20">
-        <v>0.01020056180178304</v>
+        <v>0.6308964936184638</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.051414</v>
+        <v>3.473271</v>
       </c>
       <c r="H21">
-        <v>12.154242</v>
+        <v>10.419813</v>
       </c>
       <c r="I21">
-        <v>0.9598548732118873</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J21">
-        <v>0.9598548732118872</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.08017533333333333</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N21">
-        <v>0.240526</v>
+        <v>0.52837</v>
       </c>
       <c r="O21">
-        <v>0.007301415158788918</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P21">
-        <v>0.007301415158788916</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q21">
-        <v>0.3248234679213334</v>
+        <v>0.6117240660900001</v>
       </c>
       <c r="R21">
-        <v>2.923411211292</v>
+        <v>5.50551659481</v>
       </c>
       <c r="S21">
-        <v>0.007008298921506689</v>
+        <v>0.007395091190068297</v>
       </c>
       <c r="T21">
-        <v>0.007008298921506686</v>
+        <v>0.007395091190068297</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.02013433333333333</v>
+        <v>3.473271</v>
       </c>
       <c r="H22">
-        <v>0.06040300000000001</v>
+        <v>10.419813</v>
       </c>
       <c r="I22">
-        <v>0.004770195780750263</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J22">
-        <v>0.004770195780750263</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>7.582021999999999</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N22">
-        <v>22.746066</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O22">
-        <v>0.6904803268470485</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P22">
-        <v>0.6904803268470484</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q22">
-        <v>0.1526589582886667</v>
+        <v>0.09913178536800002</v>
       </c>
       <c r="R22">
-        <v>1.373930624598</v>
+        <v>0.8921860683120002</v>
       </c>
       <c r="S22">
-        <v>0.003293726341816853</v>
+        <v>0.001198397501861211</v>
       </c>
       <c r="T22">
-        <v>0.003293726341816852</v>
+        <v>0.001198397501861211</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.02013433333333333</v>
+        <v>3.473271</v>
       </c>
       <c r="H23">
-        <v>0.06040300000000001</v>
+        <v>10.419813</v>
       </c>
       <c r="I23">
-        <v>0.004770195780750263</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J23">
-        <v>0.004770195780750263</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1761233333333333</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N23">
-        <v>0.52837</v>
+        <v>19.037629</v>
       </c>
       <c r="O23">
-        <v>0.01603921708027116</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P23">
-        <v>0.01603921708027115</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q23">
-        <v>0.003546125901111111</v>
+        <v>22.040948238153</v>
       </c>
       <c r="R23">
-        <v>0.03191513311</v>
+        <v>198.368534143377</v>
       </c>
       <c r="S23">
-        <v>7.651020564284701E-05</v>
+        <v>0.2664515443679406</v>
       </c>
       <c r="T23">
-        <v>7.6510205642847E-05</v>
+        <v>0.2664515443679406</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.02013433333333333</v>
+        <v>3.473271</v>
       </c>
       <c r="H24">
-        <v>0.06040300000000001</v>
+        <v>10.419813</v>
       </c>
       <c r="I24">
-        <v>0.004770195780750263</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J24">
-        <v>0.004770195780750263</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>3.025778</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N24">
-        <v>9.077334</v>
+        <v>0.458717</v>
       </c>
       <c r="O24">
-        <v>0.2755518491514017</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P24">
-        <v>0.2755518491514016</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q24">
-        <v>0.06092202284466668</v>
+        <v>0.531082817769</v>
       </c>
       <c r="R24">
-        <v>0.548298205602</v>
+        <v>4.779745359921001</v>
       </c>
       <c r="S24">
-        <v>0.001314436268199949</v>
+        <v>0.006420224549907374</v>
       </c>
       <c r="T24">
-        <v>0.001314436268199949</v>
+        <v>0.006420224549907374</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,25 +1960,25 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.02013433333333333</v>
+        <v>3.473271</v>
       </c>
       <c r="H25">
-        <v>0.06040300000000001</v>
+        <v>10.419813</v>
       </c>
       <c r="I25">
-        <v>0.004770195780750263</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="J25">
-        <v>0.004770195780750263</v>
+        <v>0.9159519051570161</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1987,28 +1987,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.116695</v>
+        <v>0.08550400000000001</v>
       </c>
       <c r="N25">
-        <v>0.350085</v>
+        <v>0.256512</v>
       </c>
       <c r="O25">
-        <v>0.01062719176248979</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="P25">
-        <v>0.01062719176248978</v>
+        <v>0.003919587817396888</v>
       </c>
       <c r="Q25">
-        <v>0.002349576028333333</v>
+        <v>0.2969785635840001</v>
       </c>
       <c r="R25">
-        <v>0.02114618425500001</v>
+        <v>2.672807072256</v>
       </c>
       <c r="S25">
-        <v>5.069378530665273E-05</v>
+        <v>0.00359015392877491</v>
       </c>
       <c r="T25">
-        <v>5.069378530665272E-05</v>
+        <v>0.003590153928774909</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2031,51 +2031,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.02013433333333333</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H26">
-        <v>0.06040300000000001</v>
+        <v>0.060778</v>
       </c>
       <c r="I26">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J26">
-        <v>0.004770195780750263</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.08017533333333333</v>
+        <v>15.025588</v>
       </c>
       <c r="N26">
-        <v>0.240526</v>
+        <v>45.076764</v>
       </c>
       <c r="O26">
-        <v>0.007301415158788918</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="P26">
-        <v>0.007301415158788916</v>
+        <v>0.6887877955888012</v>
       </c>
       <c r="Q26">
-        <v>0.001614276886444445</v>
+        <v>0.3044083958213333</v>
       </c>
       <c r="R26">
-        <v>0.014528491978</v>
+        <v>2.739675562392</v>
       </c>
       <c r="S26">
-        <v>3.482917978396091E-05</v>
+        <v>0.003679972672172043</v>
       </c>
       <c r="T26">
-        <v>3.482917978396089E-05</v>
+        <v>0.003679972672172043</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.011261</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H27">
-        <v>0.033783</v>
+        <v>0.060778</v>
       </c>
       <c r="I27">
-        <v>0.002667939076885024</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J27">
-        <v>0.002667939076885024</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>7.582021999999999</v>
+        <v>0.1761233333333333</v>
       </c>
       <c r="N27">
-        <v>22.746066</v>
+        <v>0.52837</v>
       </c>
       <c r="O27">
-        <v>0.6904803268470485</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="P27">
-        <v>0.6904803268470484</v>
+        <v>0.008073667567513385</v>
       </c>
       <c r="Q27">
-        <v>0.08538114974199999</v>
+        <v>0.003568141317777778</v>
       </c>
       <c r="R27">
-        <v>0.768430347678</v>
+        <v>0.03211327186</v>
       </c>
       <c r="S27">
-        <v>0.001842159445815584</v>
+        <v>4.313502097878061E-05</v>
       </c>
       <c r="T27">
-        <v>0.001842159445815584</v>
+        <v>4.313502097878061E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.02025933333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.060778</v>
+      </c>
+      <c r="I28">
+        <v>0.005342679843835308</v>
+      </c>
+      <c r="J28">
+        <v>0.005342679843835308</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G28">
-        <v>0.011261</v>
-      </c>
-      <c r="H28">
-        <v>0.033783</v>
-      </c>
-      <c r="I28">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="J28">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M28">
-        <v>0.1761233333333333</v>
+        <v>0.02854133333333334</v>
       </c>
       <c r="N28">
-        <v>0.52837</v>
+        <v>0.08562400000000001</v>
       </c>
       <c r="O28">
-        <v>0.01603921708027116</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="P28">
-        <v>0.01603921708027115</v>
+        <v>0.001308362911976013</v>
       </c>
       <c r="Q28">
-        <v>0.001983324856666667</v>
+        <v>0.0005782283857777779</v>
       </c>
       <c r="R28">
-        <v>0.01784992371</v>
+        <v>0.005204055472</v>
       </c>
       <c r="S28">
-        <v>4.279165401109714E-05</v>
+        <v>6.990164158235917E-06</v>
       </c>
       <c r="T28">
-        <v>4.279165401109713E-05</v>
+        <v>6.990164158235917E-06</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.011261</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H29">
-        <v>0.033783</v>
+        <v>0.060778</v>
       </c>
       <c r="I29">
-        <v>0.002667939076885024</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J29">
-        <v>0.002667939076885024</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,33 +2235,33 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.025778</v>
+        <v>6.345876333333334</v>
       </c>
       <c r="N29">
-        <v>9.077334</v>
+        <v>19.037629</v>
       </c>
       <c r="O29">
-        <v>0.2755518491514017</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="P29">
-        <v>0.2755518491514016</v>
+        <v>0.2909012393202723</v>
       </c>
       <c r="Q29">
-        <v>0.034073286058</v>
+        <v>0.1285632239291111</v>
       </c>
       <c r="R29">
-        <v>0.306659574522</v>
+        <v>1.157069015362</v>
       </c>
       <c r="S29">
-        <v>0.0007351555460589522</v>
+        <v>0.00155419218786313</v>
       </c>
       <c r="T29">
-        <v>0.0007351555460589518</v>
+        <v>0.00155419218786313</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.011261</v>
+        <v>0.02025933333333333</v>
       </c>
       <c r="H30">
-        <v>0.033783</v>
+        <v>0.060778</v>
       </c>
       <c r="I30">
-        <v>0.002667939076885024</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="J30">
-        <v>0.002667939076885024</v>
+        <v>0.005342679843835308</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2297,33 +2297,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>0.116695</v>
+        <v>0.1529056666666667</v>
       </c>
       <c r="N30">
-        <v>0.350085</v>
+        <v>0.458717</v>
       </c>
       <c r="O30">
-        <v>0.01062719176248979</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="P30">
-        <v>0.01062719176248978</v>
+        <v>0.007009346794040233</v>
       </c>
       <c r="Q30">
-        <v>0.001314102395</v>
+        <v>0.003097766869555556</v>
       </c>
       <c r="R30">
-        <v>0.011826921555</v>
+        <v>0.027879901826</v>
       </c>
       <c r="S30">
-        <v>2.835270018069714E-05</v>
+        <v>3.744869583497039E-05</v>
       </c>
       <c r="T30">
-        <v>2.835270018069712E-05</v>
+        <v>3.744869583497039E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.02025933333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.060778</v>
+      </c>
+      <c r="I31">
+        <v>0.005342679843835308</v>
+      </c>
+      <c r="J31">
+        <v>0.005342679843835308</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.08550400000000001</v>
+      </c>
+      <c r="N31">
+        <v>0.256512</v>
+      </c>
+      <c r="O31">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="P31">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="Q31">
+        <v>0.001732254037333334</v>
+      </c>
+      <c r="R31">
+        <v>0.015590286336</v>
+      </c>
+      <c r="S31">
+        <v>2.094110282814879E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.094110282814878E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.01641</v>
+      </c>
+      <c r="H32">
+        <v>0.04923</v>
+      </c>
+      <c r="I32">
+        <v>0.004327554850636945</v>
+      </c>
+      <c r="J32">
+        <v>0.004327554850636945</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>15.025588</v>
+      </c>
+      <c r="N32">
+        <v>45.076764</v>
+      </c>
+      <c r="O32">
+        <v>0.6887877955888012</v>
+      </c>
+      <c r="P32">
+        <v>0.6887877955888012</v>
+      </c>
+      <c r="Q32">
+        <v>0.24656989908</v>
+      </c>
+      <c r="R32">
+        <v>2.21912909172</v>
+      </c>
+      <c r="S32">
+        <v>0.002980766965859845</v>
+      </c>
+      <c r="T32">
+        <v>0.002980766965859845</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.01641</v>
+      </c>
+      <c r="H33">
+        <v>0.04923</v>
+      </c>
+      <c r="I33">
+        <v>0.004327554850636945</v>
+      </c>
+      <c r="J33">
+        <v>0.004327554850636945</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.1761233333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.52837</v>
+      </c>
+      <c r="O33">
+        <v>0.008073667567513385</v>
+      </c>
+      <c r="P33">
+        <v>0.008073667567513385</v>
+      </c>
+      <c r="Q33">
+        <v>0.0028901839</v>
+      </c>
+      <c r="R33">
+        <v>0.0260116551</v>
+      </c>
+      <c r="S33">
+        <v>3.493923924422273E-05</v>
+      </c>
+      <c r="T33">
+        <v>3.493923924422274E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.01641</v>
+      </c>
+      <c r="H34">
+        <v>0.04923</v>
+      </c>
+      <c r="I34">
+        <v>0.004327554850636945</v>
+      </c>
+      <c r="J34">
+        <v>0.004327554850636945</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G31">
-        <v>0.011261</v>
-      </c>
-      <c r="H31">
-        <v>0.033783</v>
-      </c>
-      <c r="I31">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="J31">
-        <v>0.002667939076885024</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.08017533333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.240526</v>
-      </c>
-      <c r="O31">
-        <v>0.007301415158788918</v>
-      </c>
-      <c r="P31">
-        <v>0.007301415158788916</v>
-      </c>
-      <c r="Q31">
-        <v>0.0009028544286666666</v>
-      </c>
-      <c r="R31">
-        <v>0.008125689857999999</v>
-      </c>
-      <c r="S31">
-        <v>1.947973081869363E-05</v>
-      </c>
-      <c r="T31">
-        <v>1.947973081869362E-05</v>
+      <c r="M34">
+        <v>0.02854133333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.08562400000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.001308362911976013</v>
+      </c>
+      <c r="P34">
+        <v>0.001308362911976013</v>
+      </c>
+      <c r="Q34">
+        <v>0.00046836328</v>
+      </c>
+      <c r="R34">
+        <v>0.00421526952</v>
+      </c>
+      <c r="S34">
+        <v>5.662012266115274E-06</v>
+      </c>
+      <c r="T34">
+        <v>5.662012266115276E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.01641</v>
+      </c>
+      <c r="H35">
+        <v>0.04923</v>
+      </c>
+      <c r="I35">
+        <v>0.004327554850636945</v>
+      </c>
+      <c r="J35">
+        <v>0.004327554850636945</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>6.345876333333334</v>
+      </c>
+      <c r="N35">
+        <v>19.037629</v>
+      </c>
+      <c r="O35">
+        <v>0.2909012393202723</v>
+      </c>
+      <c r="P35">
+        <v>0.2909012393202723</v>
+      </c>
+      <c r="Q35">
+        <v>0.10413583063</v>
+      </c>
+      <c r="R35">
+        <v>0.9372224756700002</v>
+      </c>
+      <c r="S35">
+        <v>0.001258891069276743</v>
+      </c>
+      <c r="T35">
+        <v>0.001258891069276743</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.01641</v>
+      </c>
+      <c r="H36">
+        <v>0.04923</v>
+      </c>
+      <c r="I36">
+        <v>0.004327554850636945</v>
+      </c>
+      <c r="J36">
+        <v>0.004327554850636945</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1529056666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.458717</v>
+      </c>
+      <c r="O36">
+        <v>0.007009346794040233</v>
+      </c>
+      <c r="P36">
+        <v>0.007009346794040233</v>
+      </c>
+      <c r="Q36">
+        <v>0.00250918199</v>
+      </c>
+      <c r="R36">
+        <v>0.02258263791</v>
+      </c>
+      <c r="S36">
+        <v>3.033333271834532E-05</v>
+      </c>
+      <c r="T36">
+        <v>3.033333271834533E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.01641</v>
+      </c>
+      <c r="H37">
+        <v>0.04923</v>
+      </c>
+      <c r="I37">
+        <v>0.004327554850636945</v>
+      </c>
+      <c r="J37">
+        <v>0.004327554850636945</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.08550400000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.256512</v>
+      </c>
+      <c r="O37">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="P37">
+        <v>0.003919587817396888</v>
+      </c>
+      <c r="Q37">
+        <v>0.00140312064</v>
+      </c>
+      <c r="R37">
+        <v>0.01262808576</v>
+      </c>
+      <c r="S37">
+        <v>1.696223127167338E-05</v>
+      </c>
+      <c r="T37">
+        <v>1.696223127167338E-05</v>
       </c>
     </row>
   </sheetData>
